--- a/Recursos/Convertir-textos-para-nombres-de-archivos.xlsx
+++ b/Recursos/Convertir-textos-para-nombres-de-archivos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joel\Documentos\Trbajos-de-HTML-CSS-y-JavaScrip\Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E54A779C-64DF-47A7-8DBF-7C13B4A66C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005B804D-D87C-4CF5-9883-308052336E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8CAAC0DC-BEFA-4807-A6B1-7947FA2D72AA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>ESTRUCTURA BÁSICA DE UN DOCUMENTO HTML</t>
+    <t>TEXTO EN MAYÚSCULA CON TILDE Y CON ESPACIOS</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
   <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
       </c>
       <c r="B2" t="str">
         <f>REPLACE(LOWER(SUBSTITUTE(SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE( SUBSTITUTE(A2, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"), "Á", "A"), "É", "E"), "Í", "I"), "Ó", "O"), "Ú", "U")," ","-")),1,1,UPPER(LEFT(A2,1)))</f>
-        <v>Estructura-basica-de-un-documento-html</v>
+        <v>Texto-en-mayuscula-con-tilde-y-con-espacios</v>
       </c>
     </row>
   </sheetData>
